--- a/excel_menu/kadamba_old.xlsx
+++ b/excel_menu/kadamba_old.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vjspranav/Projects/making_table/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vjspranav/Projects/IIITMessMenu/excel_menu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B27BF9F-CA49-2149-AFA4-51F80051A537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AEFD65-D9BE-4245-A2C3-604DC1E0E5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="124">
   <si>
     <t>Meal</t>
   </si>
@@ -84,7 +84,7 @@
     <t>Item 2</t>
   </si>
   <si>
-    <t>Semiya</t>
+    <t>Tomato bath</t>
   </si>
   <si>
     <t>Bread -Butter-Jam</t>
@@ -93,7 +93,7 @@
     <t>Poha</t>
   </si>
   <si>
-    <t>Veg. Upma</t>
+    <t>Semiya upma</t>
   </si>
   <si>
     <t>Cornflakes</t>
@@ -153,16 +153,16 @@
     <t>Rajma</t>
   </si>
   <si>
-    <t>Broad Beans &amp; Thurai</t>
-  </si>
-  <si>
-    <t>Special Curry</t>
-  </si>
-  <si>
-    <t>Gatte / Cluster Bean</t>
-  </si>
-  <si>
-    <t>Mix Veg Paneer</t>
+    <t>Cluster Beans &amp; Thurai</t>
+  </si>
+  <si>
+    <t>Special Curry/Dal</t>
+  </si>
+  <si>
+    <t>Gatte / Beetroot/kofta</t>
+  </si>
+  <si>
+    <t>Mix Veg Paneer/Arbi fry</t>
   </si>
   <si>
     <t>Khadi Pakodi</t>
@@ -171,7 +171,7 @@
     <t>Dry Curry</t>
   </si>
   <si>
-    <t>Cabbage / Veg Jalfrez</t>
+    <t>Cabbage / Bhendi</t>
   </si>
   <si>
     <t>French Fries</t>
@@ -183,7 +183,7 @@
     <t>Rasam</t>
   </si>
   <si>
-    <t>Aloo Baigan</t>
+    <t>Aloo Baigan/Allo methi</t>
   </si>
   <si>
     <t>Fruit Custard - Sweet</t>
@@ -207,7 +207,7 @@
     <t>Dal Makhani</t>
   </si>
   <si>
-    <t>Chana Dal Tadka</t>
+    <t>Chana Dal/Gongura dal</t>
   </si>
   <si>
     <t>Chana Dal</t>
@@ -250,7 +250,7 @@
   </si>
   <si>
     <t>Methi Phulka, Curd
-,Salad and Rasam</t>
+,Salad and + Sweet</t>
   </si>
   <si>
     <t>Phulka, Curd, Raitha,
@@ -264,14 +264,16 @@
     <t>Phulka, Curd, Salad</t>
   </si>
   <si>
-    <t>Palak Phulka, Curd,
-Salad</t>
+    <t>Palak Phulka, Curd, Salad</t>
   </si>
   <si>
     <t>Curd, Raitha, Salad
 and Salan</t>
   </si>
   <si>
+    <t>Snacks</t>
+  </si>
+  <si>
     <t>Item</t>
   </si>
   <si>
@@ -281,7 +283,8 @@
     <t>Papdi chat</t>
   </si>
   <si>
-    <t>Gunta Ponganalu</t>
+    <t>Gunta Ponganalu/
+Aloo cutlet</t>
   </si>
   <si>
     <t>Samosa</t>
@@ -293,7 +296,13 @@
     <t>Pasta</t>
   </si>
   <si>
-    <t>Bhelpuri</t>
+    <t>Chewda</t>
+  </si>
+  <si>
+    <t>Sauce</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>Tea , Coffee and Milk</t>
@@ -302,8 +311,7 @@
     <t>Dinner</t>
   </si>
   <si>
-    <t>Beeroot Porial / Karela
-Fry</t>
+    <t>Mix veg curry/Allo dum</t>
   </si>
   <si>
     <t>Veg/ Gobi Manchurian</t>
@@ -313,7 +321,7 @@
 Bhendi Kurkure</t>
   </si>
   <si>
-    <t>Special Paneer</t>
+    <t>Aloo chokha</t>
   </si>
   <si>
     <t>Mailai Kofta Curry</t>
@@ -323,8 +331,7 @@
   </si>
   <si>
     <t>Gobhi Matar Gazar ka
-Bhaji / Chamagadda
-Fry</t>
+Bhaji / Chamagadda Fry</t>
   </si>
   <si>
     <t>Dry
@@ -337,19 +344,21 @@
     <t>Tomato Soup</t>
   </si>
   <si>
-    <t>------------</t>
+    <t>Special Paneer curry</t>
   </si>
   <si>
     <t>Wheat -Lachha Paratha</t>
   </si>
   <si>
-    <t>Lauki ka Sabji</t>
+    <t>Lauki ka Sabji/Pumpkin
+chana</t>
   </si>
   <si>
     <t>Spl Sweet</t>
   </si>
   <si>
-    <t>Soyabeans masala</t>
+    <t>Soyabeans
+masala/Manchurian</t>
   </si>
   <si>
     <t>Moong Dal</t>
@@ -361,20 +370,20 @@
     <t>Toor Dal</t>
   </si>
   <si>
-    <t>Tomato Dal</t>
-  </si>
-  <si>
-    <t>Donda</t>
-  </si>
-  <si>
-    <t>Veg. Dal</t>
+    <t>Tomato Dal/Dal triveni</t>
+  </si>
+  <si>
+    <t>Donda/Dal fry</t>
+  </si>
+  <si>
+    <t>Veg. Dal/Dalma</t>
   </si>
   <si>
     <t>Steam Rice</t>
   </si>
   <si>
     <t>White Rice &amp; Fried
-Rice</t>
+Rice + Noodles</t>
   </si>
   <si>
     <t>White Rice &amp; Tomato
@@ -397,8 +406,8 @@
 Sweet</t>
   </si>
   <si>
-    <t>Chapathi/ (Roomali -4th
-week) , Curd and Salad</t>
+    <t>Double roti, Curd and
+Salad</t>
   </si>
   <si>
     <t>Curd, Raitha and Salad</t>
@@ -406,9 +415,6 @@
   <si>
     <t>Triangle Chapathi, Curd
 and Salad</t>
-  </si>
-  <si>
-    <t>Snack</t>
   </si>
 </sst>
 </file>
@@ -541,31 +547,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -574,31 +571,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -614,16 +602,38 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -940,1001 +950,715 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="3.83203125" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" customWidth="1"/>
-    <col min="5" max="6" width="5.33203125" customWidth="1"/>
-    <col min="7" max="7" width="2.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="8.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" customWidth="1"/>
-    <col min="12" max="12" width="6.33203125" customWidth="1"/>
-    <col min="13" max="13" width="7.83203125" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="1.83203125" customWidth="1"/>
-    <col min="16" max="16" width="6" customWidth="1"/>
-    <col min="17" max="17" width="2" customWidth="1"/>
-    <col min="18" max="18" width="20.1640625" customWidth="1"/>
-    <col min="19" max="19" width="19.1640625" customWidth="1"/>
-    <col min="20" max="20" width="18.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="13" t="s">
+      <c r="H1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8" t="s">
+      <c r="D2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="7" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="8" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="16" t="s">
+      <c r="H2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="K2" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="29"/>
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8" t="s">
+      <c r="D3" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="16" t="s">
+      <c r="H3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="I3" s="30"/>
+      <c r="J3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="K3" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="10.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="29"/>
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8" t="s">
+      <c r="D4" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8" t="s">
+      <c r="E4" s="30"/>
+      <c r="F4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8" t="s">
+      <c r="G4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="16" t="s">
+      <c r="H4" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="I4" s="30"/>
+      <c r="J4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="17" t="s">
+      <c r="K4" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="29"/>
+      <c r="B5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8" t="s">
+      <c r="D5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8" t="s">
+      <c r="E5" s="30"/>
+      <c r="F5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8" t="s">
+      <c r="G5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="16" t="s">
+      <c r="H5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="I5" s="30"/>
+      <c r="J5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="17" t="s">
+      <c r="K5" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="29"/>
+      <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="8" t="s">
+      <c r="D6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8" t="s">
+      <c r="G6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="16" t="s">
+      <c r="H6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="16" t="s">
+      <c r="I6" s="30"/>
+      <c r="J6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T6" s="17" t="s">
+      <c r="K6" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:11" ht="12.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="3" t="s">
+      <c r="D7" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="4" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="18" t="s">
+      <c r="H7" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="S7" s="18" t="s">
+      <c r="I7" s="24"/>
+      <c r="J7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="T7" s="19"/>
-    </row>
-    <row r="8" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4" t="s">
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" ht="12.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="23"/>
+      <c r="B8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4" t="s">
+      <c r="D8" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="4" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="18" t="s">
+      <c r="H8" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="S8" s="18" t="s">
+      <c r="I8" s="24"/>
+      <c r="J8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T8" s="20" t="s">
+      <c r="K8" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:11" ht="12.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="23"/>
+      <c r="B9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4" t="s">
+      <c r="D9" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
+      <c r="E9" s="24"/>
+      <c r="F9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="18" t="s">
+      <c r="H9" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="S9" s="18" t="s">
+      <c r="I9" s="24"/>
+      <c r="J9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="T9" s="20" t="s">
+      <c r="K9" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:11" ht="12.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="23"/>
+      <c r="B10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
+      <c r="D10" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="18" t="s">
+      <c r="H10" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="S10" s="18" t="s">
+      <c r="I10" s="24"/>
+      <c r="J10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="T10" s="20" t="s">
+      <c r="K10" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:11" ht="12.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="23"/>
+      <c r="B11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4" t="s">
+      <c r="D11" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4" t="s">
+      <c r="G11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="18" t="s">
+      <c r="H11" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="S11" s="18" t="s">
+      <c r="I11" s="24"/>
+      <c r="J11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="T11" s="20" t="s">
+      <c r="K11" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:11" ht="12.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="23"/>
+      <c r="B12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
+      <c r="D12" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4" t="s">
+      <c r="E12" s="24"/>
+      <c r="F12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4" t="s">
+      <c r="G12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="18" t="s">
+      <c r="H12" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="S12" s="18" t="s">
+      <c r="I12" s="24"/>
+      <c r="J12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="T12" s="20" t="s">
+      <c r="K12" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="23"/>
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4" t="s">
+      <c r="D13" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4" t="s">
+      <c r="E13" s="24"/>
+      <c r="F13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4" t="s">
+      <c r="G13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="18" t="s">
+      <c r="H13" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="S13" s="18" t="s">
+      <c r="I13" s="24"/>
+      <c r="J13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T13" s="20" t="s">
+      <c r="K13" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:11" ht="53" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="9.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="23"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="26"/>
+      <c r="J15" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="11.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="23"/>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="19"/>
+      <c r="B18" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="19"/>
+      <c r="B19" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="19"/>
+      <c r="B20" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="19"/>
+      <c r="B21" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="21"/>
+      <c r="J21" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="19"/>
+      <c r="B22" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="S14" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="T14" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="S15" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="T15" s="20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="30.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="J16" s="27"/>
-      <c r="K16" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="S16" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="T16" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="S17" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="T17" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="S18" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="T18" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="S19" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="T19" s="22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="S20" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="T20" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="29.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="25"/>
-      <c r="B21" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="S21" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="T21" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="1.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:20" ht="8.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-    </row>
-    <row r="24" spans="1:20" ht="1.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-    </row>
-    <row r="26" spans="1:20" ht="1.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-    </row>
-    <row r="28" spans="1:20" ht="1.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-    </row>
-    <row r="30" spans="1:20" ht="1.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="117">
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:Q6"/>
+  <mergeCells count="48">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="A7:A13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:I22"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
